--- a/docs/PST1/PST1_14.08.2024_output.xlsx
+++ b/docs/PST1/PST1_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2241 +505,2671 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731082711.7651393</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731082713.5884426</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082711.7651393.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082713.5884426.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.54</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731082715.190286</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731082716.7404673</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082715.190286.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082716.7404673.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.9</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>282.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731082716.7550457</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731082716.7550457.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731082716.7550457.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>282.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2300000000000182</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731082719.009624</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731082720.7530081</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082719.009624.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082720.7530081.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.6</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.54</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731082722.3063428</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731082723.838347</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082722.3063428.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082723.838347.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>282.9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>282.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731082723.8529544</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731082726.4579484</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082723.8529544.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082726.4579484.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>282.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>284.26</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.759999999999991</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731082726.4727185</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731082727.754017</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082726.4727185.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082727.754017.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>284.26</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>284.04</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.2199999999999704</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731082729.7972372</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731082731.7609134</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082729.7972372.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082731.7609134.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>283.81</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.22</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.589999999999975</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731082731.7746148</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731082731.7746148.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731082731.7746148.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>283.22</v>
       </c>
-      <c r="J11" t="n">
-        <v>283.22</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>282.91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3100000000000023</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731082733.2676594</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731082734.1141348</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082733.2676594.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082734.1141348.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.91</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>130.97</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731082738.5019047</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731082738.5019047.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731082738.5019047.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.86</v>
       </c>
-      <c r="J13" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731082740.5488212</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731082740.7483528</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082740.5488212.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082740.7483528.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6469</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6478.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731082741.5100644</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731082742.102868</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082741.5100644.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082742.102868.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6468</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6469.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731082745.2165847</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731082746.6185637</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082745.2165847.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082746.6185637.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6508</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6492.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-15.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731082747.5069017</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731082747.5069017.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731082747.5069017.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6456</v>
       </c>
-      <c r="J17" t="n">
-        <v>6456</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>6461</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731082752.751211</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731082752.751211.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731082752.751211.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>504.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>504.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-2.699999999999989</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731082756.247534</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731082759.433398</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082756.247534.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082759.433398.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>226.16</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>225.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.5600000000000023</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731082759.44997</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731082759.8666198</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082759.44997.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082759.8666198.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>225.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>225.54</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731082760.1002703</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731082760.150571</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082760.1002703.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082760.150571.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>225.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>225.57</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731082768.8996615</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731082769.9332187</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082768.8996615.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082769.9332187.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1064</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1059.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-4.799999999999955</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731082771.1340654</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731082771.1340654.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731082771.1340654.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1057.4</v>
       </c>
-      <c r="J23" t="n">
-        <v>1057.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>1060</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.599999999999909</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731082772.5173683</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731082774.299616</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082772.5173683.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082774.299616.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>12.207</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>12.186</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.0210000000000008</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731082774.3162284</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731082775.6663694</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082774.3162284.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082775.6663694.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>12.186</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>12.209</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.02299999999999969</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731082775.667375</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731082777.2329504</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082775.667375.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082777.2329504.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>12.209</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>12.193</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731082777.2488983</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731082777.2488983.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731082777.2488983.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>12.193</v>
       </c>
-      <c r="J27" t="n">
-        <v>12.193</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>12.088</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.1050000000000004</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731082780.2877061</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731082781.9008374</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082780.2877061.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082781.9008374.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>127.1</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>126.98</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.1199999999999903</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731082781.9155724</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731082783.1055317</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082781.9155724.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082783.1055317.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>126.98</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>127.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731082784.3564029</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731082785.1300132</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082784.3564029.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082785.1300132.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>127.26</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731082791.127472</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731082791.7618375</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082791.127472.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082791.7618375.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>165.18</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>165.36</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731082791.776416</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731082793.8163803</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082791.776416.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082793.8163803.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>165.36</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>164.82</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5400000000000205</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731082794.2067714</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731082794.2597694</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082794.2067714.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082794.2597694.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>164.98</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>164.74</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2399999999999807</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731082798.9900692</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731082801.4840589</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082798.9900692.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082801.4840589.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>50.555</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>50.41</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1450000000000031</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731082802.6421065</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731082802.6421065.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731082802.6421065.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>50.19</v>
       </c>
-      <c r="J35" t="n">
-        <v>50.19</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731082809.4098434</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731082810.43807</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082809.4098434.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082810.43807.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1404.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731082810.4536796</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731082810.5829577</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082810.4536796.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082810.5829577.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1404.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1398.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>6.599999999999909</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731082811.8787985</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731082812.3137364</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082811.8787985.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082812.3137364.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>59.76</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>59.82</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731082814.9370065</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731082815.448076</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082814.9370065.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082815.448076.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.71</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.73</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731082815.5007231</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731082815.5007231.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731082815.5007231.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>59.73</v>
       </c>
-      <c r="J40" t="n">
-        <v>59.73</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.1399999999999935</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731082820.2025979</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731082820.5203254</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082820.2025979.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082820.5203254.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>101.36</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>101.56</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731082822.837974</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731082823.7959714</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082822.837974.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082823.7959714.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>101.51</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>101.64</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731082824.8470657</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731082826.4996018</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082824.8470657.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082826.4996018.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>101.65</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>101.51</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731082833.8263056</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731082833.8263056.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731082833.8263056.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>56.82</v>
       </c>
-      <c r="J44" t="n">
-        <v>56.82</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>56.71</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731082839.5303407</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731082839.9820144</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082839.5303407.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082839.9820144.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>157.56</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>157.72</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731082839.9969914</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731082841.166275</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082839.9969914.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082841.166275.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>157.72</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>156.92</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.8000000000000114</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731082841.9682739</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731082841.9682739.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731082841.9682739.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>156.88</v>
       </c>
-      <c r="J47" t="n">
-        <v>156.88</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>156.98</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731082847.1459718</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731082847.1459718.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731082847.1459718.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.3106</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.3106</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>0.3093</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.001299999999999968</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731082856.9681625</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731082856.9681625.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731082856.9681625.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>20.717</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>20.717</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2732,376 +3177,448 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731082858.0075834</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731082858.1858914</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082858.0075834.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082858.1858914.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>694.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>694.95</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731082860.3495286</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731082861.742872</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082860.3495286.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082861.742872.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>693.35</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>692.35</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731082862.6635487</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731082862.6635487.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731082862.6635487.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>693.9</v>
       </c>
-      <c r="J52" t="n">
-        <v>693.9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="L52" t="n">
+        <v>690.1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-3.799999999999955</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731082865.6388817</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731082867.0095975</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082865.6388817.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082867.0095975.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>158.57</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>158.89</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731082867.4495049</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731082868.276346</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082867.4495049.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082868.276346.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>158.47</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>158.69</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731082868.6086388</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731082869.374218</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082868.6086388.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082869.374218.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>158.5</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>158.9</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731082870.433737</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731082872.3645825</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082870.433737.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082872.3645825.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>158.36</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>156.95</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1.410000000000025</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731082872.3801472</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731082872.3801472.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731082872.3801472.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>156.95</v>
       </c>
-      <c r="J57" t="n">
-        <v>156.95</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>156.26</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6899999999999977</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -3115,7 +3632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3139,6 +3656,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3147,11 +3679,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.029999999999916</v>
+        <v>-2.719999999999914</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.4533333333333189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.9599999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3160,11 +3701,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4700000000000273</v>
+        <v>0.2199999999999704</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.04399999999999409</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3173,11 +3723,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0600000000000005</v>
+        <v>-0.04499999999999993</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.01124999999999998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3186,11 +3745,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4.5</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.009999999999999995</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3199,11 +3767,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.25</v>
+        <v>-4.049999999999955</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>-1.349999999999985</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3217,6 +3794,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.03333333333333144</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3230,6 +3816,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.1566666666666663</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3243,6 +3838,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.06333333333333258</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3251,11 +3855,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07999999999999829</v>
+        <v>-0.05999999999999517</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.01999999999999839</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3269,6 +3882,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.3200000000000027</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3277,11 +3899,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.960000000000008</v>
+        <v>0.8600000000000136</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.2866666666666712</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3290,11 +3921,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4599999999999795</v>
+        <v>-0.2299999999999613</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.07666666666665378</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.07999999999999997</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3308,6 +3948,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>2.599999999999909</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3316,11 +3965,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06000000000000227</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3329,11 +3987,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1450000000000031</v>
+        <v>-0.1950000000000003</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.09750000000000014</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3342,11 +4009,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.799999999999955</v>
+        <v>-2.200000000000045</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3360,6 +4036,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3368,11 +4053,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3381,11 +4075,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-2.699999999999989</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-2.699999999999989</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3394,11 +4097,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.001299999999999968</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.001299999999999968</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.42</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3412,6 +4124,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
